--- a/로스트아크.xlsx
+++ b/로스트아크.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
+  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.4249"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="14160" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="9510" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="로아 대리" sheetId="1" r:id="rId4"/>
+    <x:sheet name="로아 1안" sheetId="1" r:id="rId4"/>
+    <x:sheet name="로아 2안" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</x:definedName>
@@ -16,72 +17,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+  <x:si>
+    <x:t>E = (v / d) / t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율 = (평균금액 / 평균기간) / 평균소요시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨텐츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B코스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨텐츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A코스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C코스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d값(평균기간)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균소요시간(t)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B코스(v값)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30일 기준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>섬의 마음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28일 기준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율(E)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A코스(v값)</x:t>
+  </x:si>
   <x:si>
     <x:t>카오스 던전</x:t>
   </x:si>
   <x:si>
+    <x:t>C코스(v값)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카오스던전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31일 기준</x:t>
+  </x:si>
+  <x:si>
     <x:t>섬의 마음</x:t>
   </x:si>
   <x:si>
-    <x:t>30일 기준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28일 기준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율(E)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A코스(v값)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B코스(v값)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31일 기준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카오스던전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C코스(v값)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E = (v / d) / t</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율 = (평균금액 / 평균기간) / 평균소요시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d값(평균기간)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균소요시간(t)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B코스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨텐츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C코스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A코스</x:t>
+    <x:t>월 의뢰수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율(V/t)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주간의뢰수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하루의뢰수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월수입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순수익</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연봉</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -266,7 +303,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -370,6 +407,22 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -385,7 +438,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -468,7 +520,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -503,7 +554,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -548,7 +598,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -592,7 +641,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -653,7 +701,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -674,7 +721,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -705,7 +751,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1016,7 +1061,7 @@
   <x:dimension ref="A1:G14"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <x:selection activeCell="E12" activeCellId="0" sqref="E12:G14"/>
+      <x:selection activeCell="A16" activeCellId="0" sqref="A16:A16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -1032,16 +1077,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1" s="6"/>
       <x:c r="F1" s="6"/>
@@ -1049,7 +1094,7 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="1">
         <x:v>50000</x:v>
@@ -1066,7 +1111,7 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="1">
         <x:v>28</x:v>
@@ -1083,16 +1128,16 @@
     </x:row>
     <x:row r="4" spans="1:7" customHeight="1">
       <x:c r="A4" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="4" t="s">
         <x:v>12</x:v>
@@ -1102,7 +1147,7 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="1">
         <x:f>(B2*3)*B3</x:f>
@@ -1125,7 +1170,7 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B6" s="1">
         <x:f>((B2+C2)*3)*B3</x:f>
@@ -1145,7 +1190,7 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B7" s="1">
         <x:f>((B2+C2+D2)*3)*B3</x:f>
@@ -1169,7 +1214,7 @@
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="1">
         <x:v>180</x:v>
@@ -1180,19 +1225,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F9" s="1">
         <x:v>45</x:v>
@@ -1204,13 +1249,13 @@
     </x:row>
     <x:row r="10" spans="1:7" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="6"/>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F10" s="1">
         <x:v>60</x:v>
@@ -1219,7 +1264,7 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B11" s="5">
         <x:f>ROUNDUP((B5/E5)/G9,-1)</x:f>
@@ -1239,7 +1284,7 @@
     </x:row>
     <x:row r="12" spans="1:7" customHeight="1">
       <x:c r="A12" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B12" s="5">
         <x:f>ROUNDUP((C5/E5)/G9,-1)</x:f>
@@ -1259,7 +1304,7 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B13" s="5">
         <x:f>ROUNDUP((D5/E5)/G9,-1)</x:f>
@@ -1279,7 +1324,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="6"/>
       <x:c r="C14" s="6"/>
@@ -1304,4 +1349,136 @@
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:D8"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <x:selection activeCell="D7" activeCellId="0" sqref="D7:D7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
+  <x:cols>
+    <x:col min="2" max="2" width="11.9296875" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" customHeight="1">
+      <x:c r="A1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C1" s="11"/>
+      <x:c r="D1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" customHeight="1">
+      <x:c r="A2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="11">
+        <x:v>65000</x:v>
+      </x:c>
+      <x:c r="C2" s="11"/>
+      <x:c r="D2">
+        <x:f>((B6/100)*15)</x:f>
+        <x:v>1794000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" customHeight="1">
+      <x:c r="A4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B4" s="12">
+        <x:f>B3*7</x:f>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C4" s="12">
+        <x:f>C3*2</x:f>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4">
+        <x:f>B6-D2</x:f>
+        <x:v>10166000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" customHeight="1">
+      <x:c r="A5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B5" s="11">
+        <x:f>(B4+C4)*4</x:f>
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C5" s="11"/>
+      <x:c r="D5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" customHeight="1">
+      <x:c r="A6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B6" s="11">
+        <x:f>B2*B5</x:f>
+        <x:v>11960000</x:v>
+      </x:c>
+      <x:c r="C6" s="11"/>
+      <x:c r="D6">
+        <x:f>D4*12</x:f>
+        <x:v>121992000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" customHeight="1">
+      <x:c r="A7" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="11">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="11"/>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B8" s="11">
+        <x:f>ROUNDUP((B6/30)/B7,-1)</x:f>
+        <x:v>26580</x:v>
+      </x:c>
+      <x:c r="C8" s="11"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="6">
+    <x:mergeCell ref="B5:C5"/>
+    <x:mergeCell ref="B6:C6"/>
+    <x:mergeCell ref="B7:C7"/>
+    <x:mergeCell ref="B8:C8"/>
+    <x:mergeCell ref="B2:C2"/>
+    <x:mergeCell ref="B1:C1"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>